--- a/inputs/sites.xlsx
+++ b/inputs/sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\ecoinnovators-pv\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924F1A1-9DB1-4DD2-BAAD-F799CE04BCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B93AC-C0D6-4E53-81FA-3D375888B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60233A52-7E6C-43C2-9784-3108678676EC}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7270" xr2:uid="{CD18919D-2C7D-4F85-ABAD-EE3342E6F371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78C3710-71EE-4415-A9C2-9EB456057BEE}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E133B192-4996-4B78-9B49-8AD3678EECA5}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,7 +426,7 @@
         <v>12.9716</v>
       </c>
       <c r="C2" s="2">
-        <v>77.5946</v>
+        <v>7.5945999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -434,10 +434,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>13.082700000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.2706999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>28.7041</v>
       </c>
-      <c r="C3" s="2">
-        <v>77.102500000000006</v>
+      <c r="C4" s="2">
+        <v>7.1025</v>
       </c>
     </row>
   </sheetData>
